--- a/data/in/demo.xlsx
+++ b/data/in/demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\personal-finance-for-newbies\data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D7FB2F-F87C-406A-AA9B-E889B181BF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993CAC17-9634-408C-B29D-4FE28E04FC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions History" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="48">
   <si>
     <t>Ticker</t>
   </si>
@@ -283,6 +283,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFC0C0C0"/>
@@ -300,6 +307,27 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -326,34 +354,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,29 +437,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F33" totalsRowShown="0" headerRowDxfId="8" dataDxfId="16" headerRowBorderDxfId="9">
-  <autoFilter ref="A1:F33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F34" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15">
+  <autoFilter ref="A1:F34" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Exchange" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ticker" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transaction Date" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Shares" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Price (€)" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fees (€)" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Exchange" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ticker" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transaction Date" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Shares" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Price (€)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fees (€)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="AnagraficaTitoli" displayName="AnagraficaTitoli" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="AnagraficaTitoli" displayName="AnagraficaTitoli" ref="A1:E13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
   <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{CB69E3FE-746B-4A0D-BCE6-D1407F3F9B50}" name="Exchange" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ticker" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Security Name" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Asset Class" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Macro Asset Class" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{CB69E3FE-746B-4A0D-BCE6-D1407F3F9B50}" name="Exchange" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ticker" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Security Name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Asset Class" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Macro Asset Class" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -762,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1436,6 +1436,26 @@
         <v>169.76</v>
       </c>
       <c r="F33" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="5">
+        <v>45139</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>155.68</v>
+      </c>
+      <c r="F34" s="2">
         <v>1.5</v>
       </c>
     </row>

--- a/data/in/demo.xlsx
+++ b/data/in/demo.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\personal-finance-for-newbies\data\in\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14E3806-39C5-49EB-8767-F70D8FF81F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Transactions History" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Securities Master Table" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Transactions History" sheetId="1" r:id="rId1"/>
+    <sheet name="Securities Master Table" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,183 +26,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="48">
-  <si>
-    <t xml:space="preserve">Exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ticker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transaction Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price (€)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fees (€)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCWD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGGH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36BZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IB01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGLN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLXI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSBGE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Security Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macro Asset Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyxor Euro Government Inflation Linked Bond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU Inflation-linked Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyxor Core MSCI World</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Stocks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stocks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amundi Index MSCI World</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iShares Core Gl Aggregate Bond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iShares MSCI China A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMs Stocks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iShares $ Treasury Bond 0-1y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Short Term Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash (USD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iShares Physical Gold ETC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commodities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franklin FTSE India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iShares MSCI China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iShares Govt Bond 1-3yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU Short Term Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyxor Euro Government Bond 7-10Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU Long Term Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invesco Physical Gold A</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Transaction Date</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Price (€)</t>
+  </si>
+  <si>
+    <t>Fees (€)</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MWRD</t>
+  </si>
+  <si>
+    <t>LCWD</t>
+  </si>
+  <si>
+    <t>EMI</t>
+  </si>
+  <si>
+    <t>AGGH</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>36BZ</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>IB01</t>
+  </si>
+  <si>
+    <t>EGLN</t>
+  </si>
+  <si>
+    <t>FLXI</t>
+  </si>
+  <si>
+    <t>ICGA</t>
+  </si>
+  <si>
+    <t>CSBGE3</t>
+  </si>
+  <si>
+    <t>EM710</t>
+  </si>
+  <si>
+    <t>SGLD</t>
+  </si>
+  <si>
+    <t>Security Name</t>
+  </si>
+  <si>
+    <t>Asset Class</t>
+  </si>
+  <si>
+    <t>Macro Asset Class</t>
+  </si>
+  <si>
+    <t>Lyxor Euro Government Inflation Linked Bond</t>
+  </si>
+  <si>
+    <t>EU Inflation-linked Bonds</t>
+  </si>
+  <si>
+    <t>Bonds</t>
+  </si>
+  <si>
+    <t>Lyxor Core MSCI World</t>
+  </si>
+  <si>
+    <t>World Stocks</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Amundi Index MSCI World</t>
+  </si>
+  <si>
+    <t>iShares Core Gl Aggregate Bond</t>
+  </si>
+  <si>
+    <t>World Bonds</t>
+  </si>
+  <si>
+    <t>iShares MSCI China A</t>
+  </si>
+  <si>
+    <t>EMs Stocks</t>
+  </si>
+  <si>
+    <t>iShares $ Treasury Bond 0-1y</t>
+  </si>
+  <si>
+    <t>US Short Term Bonds</t>
+  </si>
+  <si>
+    <t>Cash (USD)</t>
+  </si>
+  <si>
+    <t>iShares Physical Gold ETC</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Commodities</t>
+  </si>
+  <si>
+    <t>Franklin FTSE India</t>
+  </si>
+  <si>
+    <t>iShares MSCI China</t>
+  </si>
+  <si>
+    <t>iShares Govt Bond 1-3yr</t>
+  </si>
+  <si>
+    <t>EU Short Term Bonds</t>
+  </si>
+  <si>
+    <t>Lyxor Euro Government Bond 7-10Y</t>
+  </si>
+  <si>
+    <t>EU Long Term Bonds</t>
+  </si>
+  <si>
+    <t>Invesco Physical Gold A</t>
+  </si>
+  <si>
+    <t>XFFE</t>
+  </si>
+  <si>
+    <t>Xtrackers Fed Funds Effective Rate Swap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -215,127 +206,71 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9DC3E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FF272727"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -394,61 +329,371 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="AnagraficaTitoli" displayName="AnagraficaTitoli" ref="A1:E13" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E13"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Exchange"/>
-    <tableColumn id="2" name="Ticker"/>
-    <tableColumn id="3" name="Security Name"/>
-    <tableColumn id="4" name="Asset Class"/>
-    <tableColumn id="5" name="Macro Asset Class"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F36" totalsRowShown="0">
+  <autoFilter ref="A1:F36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Exchange"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ticker"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transaction Date"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Shares"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Price (€)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fees (€)"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabella1" displayName="Tabella1" ref="A1:F34" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:F34"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Exchange"/>
-    <tableColumn id="2" name="Ticker"/>
-    <tableColumn id="3" name="Transaction Date"/>
-    <tableColumn id="4" name="Shares"/>
-    <tableColumn id="5" name="Price (€)"/>
-    <tableColumn id="6" name="Fees (€)"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="AnagraficaTitoli" displayName="AnagraficaTitoli" ref="A1:E15" totalsRowShown="0">
+  <autoFilter ref="A1:E15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Exchange"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ticker"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Security Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Asset Class"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Macro Asset Class"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.15"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="10.23046875" customWidth="1"/>
+    <col min="3" max="3" width="19.23046875" customWidth="1"/>
+    <col min="4" max="4" width="10.69140625" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.69140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -468,721 +713,733 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>44525</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <v>99.72</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="6">
         <v>44531</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>96.74</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="6">
         <v>44564</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>99.75</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="6">
         <v>44593</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>13.798</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="6">
         <v>44621</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>13.462</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6">
         <v>44652</v>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <v>175.41</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="6">
         <v>44652</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>14.054</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="6">
         <v>44683</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>13.438</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="E9" s="2">
+        <v>13.438000000000001</v>
+      </c>
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="6">
         <v>44713</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>13.29</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6">
         <v>44743</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2">
         <v>12.29</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="6">
         <v>44775</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="5">
         <v>15</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2">
         <v>13.62</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="6">
         <v>44805</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="5">
         <v>15</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>13.348</v>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="E13" s="2">
+        <v>13.348000000000001</v>
+      </c>
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="6">
         <v>44837</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>19</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2">
         <v>12.586</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="6">
         <v>44867</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="5">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="n">
-        <v>13.162</v>
-      </c>
-      <c r="F15" s="2" t="n">
+      <c r="E15" s="2">
+        <v>13.162000000000001</v>
+      </c>
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="6">
         <v>44867</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="5">
         <v>23</v>
       </c>
-      <c r="E16" s="2" t="n">
-        <v>4.512</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="2">
+        <v>4.5119999999999996</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="6">
         <v>44896</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="5">
         <v>14</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="2">
         <v>13.462</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="6">
         <v>44896</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="2" t="n">
-        <v>4.628</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="2">
+        <v>4.6280000000000001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="6">
         <v>44928</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="5">
         <v>15</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2">
         <v>12.692</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="6">
         <v>44939</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="5">
         <v>10</v>
       </c>
-      <c r="E20" s="2" t="n">
-        <v>4.7695</v>
-      </c>
-      <c r="F20" s="2" t="n">
+      <c r="E20" s="2">
+        <v>4.7694999999999999</v>
+      </c>
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="6">
         <v>44958</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="n">
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
         <v>94.89</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2">
         <v>1.24</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="6" t="n">
+      <c r="C22" s="6">
         <v>44958</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="5">
         <v>3</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="2">
         <v>34.54</v>
       </c>
-      <c r="F22" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="6">
         <v>44958</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="n">
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
         <v>28.96</v>
       </c>
-      <c r="F23" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="6">
         <v>44958</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="5">
         <v>5</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="2">
         <v>4.6555</v>
       </c>
-      <c r="F24" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="6">
         <v>44987</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="5">
         <v>2</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="2">
         <v>105.93</v>
       </c>
-      <c r="F25" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="6">
         <v>44987</v>
       </c>
-      <c r="D26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>33.66</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="6">
         <v>45019</v>
       </c>
-      <c r="D27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="n">
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
         <v>155.78</v>
       </c>
-      <c r="F27" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="6">
         <v>45019</v>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="D28" s="5">
         <v>3</v>
       </c>
-      <c r="E28" s="2" t="n">
-        <v>28.235</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E28" s="2">
+        <v>28.234999999999999</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="6" t="n">
+      <c r="C29" s="6">
         <v>45048</v>
       </c>
-      <c r="D29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>155.61</v>
-      </c>
-      <c r="F29" s="2" t="n">
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>155.61000000000001</v>
+      </c>
+      <c r="F29" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="6">
         <v>45078</v>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="D30" s="5">
         <v>2</v>
       </c>
-      <c r="E30" s="2" t="n">
-        <v>157.23</v>
-      </c>
-      <c r="F30" s="2" t="n">
+      <c r="E30" s="2">
+        <v>157.22999999999999</v>
+      </c>
+      <c r="F30" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="6" t="n">
+      <c r="C31" s="6">
         <v>45092</v>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="D31" s="5">
         <v>-4</v>
       </c>
-      <c r="E31" s="2" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="F31" s="2" t="n">
+      <c r="E31" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F31" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="6" t="n">
+      <c r="C32" s="6">
         <v>45092</v>
       </c>
-      <c r="D32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="n">
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
         <v>172.22</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="6" t="n">
+      <c r="C33" s="6">
         <v>45110</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="5">
         <v>2</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="2">
         <v>169.76</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="6" t="n">
+      <c r="C34" s="6">
         <v>45139</v>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="D34" s="5">
         <v>3</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="2">
         <v>155.68</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="7" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="6" t="n">
+      <c r="C35" s="6">
         <v>45170</v>
       </c>
-      <c r="D35" s="7" t="n">
+      <c r="D35" s="5">
         <v>41</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="2">
         <v>14.37</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2">
         <v>1.5</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="6">
+        <v>45201</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>179.29</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.92"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="10.23046875" customWidth="1"/>
+    <col min="3" max="3" width="38.921875" customWidth="1"/>
+    <col min="4" max="4" width="21.921875" customWidth="1"/>
+    <col min="5" max="5" width="19.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1195,11 +1452,11 @@
       <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1250,7 +1507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1267,7 +1524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1284,7 +1541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1301,7 +1558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1318,7 +1575,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1335,7 +1592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1352,7 +1609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1369,7 +1626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
@@ -1386,14 +1643,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1403,28 +1660,28 @@
         <v>40</v>
       </c>
     </row>
+    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<DataMashup xmlns="http://schemas.microsoft.com/DataMashup">AAAAABQDAABQSwMEFAACAAgAjabxVppI8HOkAAAA9gAAABIAHABDb25maWcvUGFja2FnZS54bWwgohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAhY+9DoIwGEVfhXSnfy6EfJTByUQSE41xbUqFRiiGFsu7OfhIvoIYRd0c77lnuPd+vUE+tk100b0znc0QwxRF2qquNLbK0OCPcYJyARupTrLS0SRbl46uzFDt/TklJISAwwJ3fUU4pYwcivVW1bqV6COb/3JsrPPSKo0E7F9jBMeMJZhTjimQGUJh7Ffg095n+wNhOTR+6LUwPl7tgMwRyPuDeABQSwMEFAACAAgAjabxVg/K6aukAAAA6QAAABMAHABbQ29udGVudF9UeXBlc10ueG1sIKIYACigFAAAAAAAAAAAAAAAAAAAAAAAAAAAAG2OSw7CMAxErxJ5n7qwQAg1ZQHcgAtEwf2I5qPGReFsLDgSVyBtd4ilZ+Z55vN6V8dkB/GgMfbeKdgUJQhyxt961yqYuJF7ONbV9Rkoihx1UUHHHA6I0XRkdSx8IJedxo9Wcz7HFoM2d90Sbstyh8Y7JseS5x9QV2dq9DSwuKQsr7UZB3Fac3OVAqbEuMj4l7A/eR3C0BvN2cQkbZR2IXEZXn8BUEsDBBQAAgAIAI2m8VYoike4DgAAABEAAAATABwARm9ybXVsYXMvU2VjdGlvbjEubSCiGAAooBQAAAAAAAAAAAAAAAAAAAAAAAAAAAArTk0uyczPUwiG0IbWAFBLAQItABQAAgAIAI2m8VaaSPBzpAAAAPYAAAASAAAAAAAAAAAAAAAAAAAAAABDb25maWcvUGFja2FnZS54bWxQSwECLQAUAAIACACNpvFWD8rpq6QAAADpAAAAEwAAAAAAAAAAAAAAAADwAAAAW0NvbnRlbnRfVHlwZXNdLnhtbFBLAQItABQAAgAIAI2m8VYoike4DgAAABEAAAATAAAAAAAAAAAAAAAAAOEBAABGb3JtdWxhcy9TZWN0aW9uMS5tUEsFBgAAAAADAAMAwgAAADwCAAAAABABAADvu788P3htbCB2ZXJzaW9uPSIxLjAiIGVuY29kaW5nPSJ1dGYtOCI/PjxQZXJtaXNzaW9uTGlzdCB4bWxuczp4c2Q9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hIiB4bWxuczp4c2k9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hLWluc3RhbmNlIj48Q2FuRXZhbHVhdGVGdXR1cmVQYWNrYWdlcz5mYWxzZTwvQ2FuRXZhbHVhdGVGdXR1cmVQYWNrYWdlcz48RmlyZXdhbGxFbmFibGVkPnRydWU8L0ZpcmV3YWxsRW5hYmxlZD48L1Blcm1pc3Npb25MaXN0PpcBAAAAAAAAdQEAAO+7vzw/eG1sIHZlcnNpb249IjEuMCIgZW5jb2Rpbmc9InV0Zi04Ij8+PExvY2FsUGFja2FnZU1ldGFkYXRhRmlsZSB4bWxuczp4c2Q9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hIiB4bWxuczp4c2k9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hLWluc3RhbmNlIj48SXRlbXM+PEl0ZW0+PEl0ZW1Mb2NhdGlvbj48SXRlbVR5cGU+QWxsRm9ybXVsYXM8L0l0ZW1UeXBlPjxJdGVtUGF0aCAvPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzPjxFbnRyeSBUeXBlPSJSZWxhdGlvbnNoaXBzIiBWYWx1ZT0ic0FBQUFBQT09IiAvPjwvU3RhYmxlRW50cmllcz48L0l0ZW0+PC9JdGVtcz48L0xvY2FsUGFja2FnZU1ldGFkYXRhRmlsZT4WAAAAUEsFBgAAAAAAAAAAAAAAAAAAAAAAACYBAAABAAAA0Iyd3wEV0RGMegDAT8KX6wEAAADNc3yLNVezQ6O6nXWWh06jAAAAAAIAAAAAABBmAAAAAQAAIAAAAGd5wrrV9HlA1ku1MtQM0Jmu75gANc4vvG776kXIaHJhAAAAAA6AAAAAAgAAIAAAABO9p9lJRfdXmr1A2BbUHXA8XWjg3/APuJfSayJjhkIeUAAAAFVynpt6lPKltD6rEgk+mMnUJAT86grmDM92xbRXAb5F+dr17p/E8CD7ddy0y58soljGuR9WQCtazz3TRaeQFIMgu5T395K70hLtyQ4OAuocQAAAAId57XuqTSK5zCEwRE2OgTEj/uBjQlD9NxsZpWy2OKeh2ZfKBQacd0ZkJ6XB5QzLMOhoSvLJRoswCSPqVE+d85g=</DataMashup>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{417798BF-AA42-4CE2-A3BD-B1097CB74A09}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/in/demo.xlsx
+++ b/data/in/demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\personal-finance-for-newbies\data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14E3806-39C5-49EB-8767-F70D8FF81F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53723B8A-1087-4785-9506-8408B0EBA732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="50">
   <si>
     <t>Exchange</t>
   </si>
@@ -351,8 +351,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F36" totalsRowShown="0">
-  <autoFilter ref="A1:F36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F37" totalsRowShown="0">
+  <autoFilter ref="A1:F37" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Exchange"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ticker"/>
@@ -676,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1413,6 +1413,61 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="6">
+        <v>45231</v>
+      </c>
+      <c r="D37" s="5">
+        <v>46</v>
+      </c>
+      <c r="E37" s="2">
+        <v>13.638</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1427,7 +1482,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/data/in/demo.xlsx
+++ b/data/in/demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\personal-finance-for-newbies\data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53723B8A-1087-4785-9506-8408B0EBA732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA351702-3612-4FA2-88A1-6DEF974AA731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,19 @@
     <sheet name="Transactions History" sheetId="1" r:id="rId1"/>
     <sheet name="Securities Master Table" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="50">
   <si>
     <t>Exchange</t>
   </si>
@@ -351,8 +362,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F37" totalsRowShown="0">
-  <autoFilter ref="A1:F37" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F39" totalsRowShown="0">
+  <autoFilter ref="A1:F39" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Exchange"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ticker"/>
@@ -679,7 +690,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1434,18 +1445,44 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="2"/>
+      <c r="A38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D38" s="5">
+        <v>32</v>
+      </c>
+      <c r="E38" s="2">
+        <v>14.49</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="2"/>
+      <c r="A39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D39" s="5">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="F39" s="2">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>

--- a/data/in/demo.xlsx
+++ b/data/in/demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\personal-finance-for-newbies\data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA351702-3612-4FA2-88A1-6DEF974AA731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64402906-5197-47B8-9171-59F0C7BF4A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="50">
   <si>
     <t>Exchange</t>
   </si>
@@ -362,8 +362,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F39" totalsRowShown="0">
-  <autoFilter ref="A1:F39" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F40" totalsRowShown="0">
+  <autoFilter ref="A1:F40" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Exchange"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ticker"/>
@@ -391,9 +391,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -431,7 +431,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -537,7 +537,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -679,7 +679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -690,7 +690,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1485,11 +1485,24 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="2"/>
+      <c r="A40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="6">
+        <v>45293</v>
+      </c>
+      <c r="D40" s="5">
+        <v>38</v>
+      </c>
+      <c r="E40" s="2">
+        <v>15.04</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>

--- a/data/in/demo.xlsx
+++ b/data/in/demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\personal-finance-for-newbies\data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64402906-5197-47B8-9171-59F0C7BF4A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773B4C32-D7A1-4C9A-96C3-16CBF20F57D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions History" sheetId="1" r:id="rId1"/>
@@ -362,8 +362,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F40" totalsRowShown="0">
-  <autoFilter ref="A1:F40" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F42" totalsRowShown="0">
+  <autoFilter ref="A1:F42" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Exchange"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ticker"/>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/data/in/demo.xlsx
+++ b/data/in/demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\personal-finance-for-newbies\data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773B4C32-D7A1-4C9A-96C3-16CBF20F57D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A3DFDD-17E1-4973-9ED1-6BD6769B282E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions History" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="52">
   <si>
     <t>Exchange</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Xtrackers Fed Funds Effective Rate Swap</t>
+  </si>
+  <si>
+    <t>LCCN</t>
+  </si>
+  <si>
+    <t>Lyxor MSCI China</t>
   </si>
 </sst>
 </file>
@@ -252,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -276,11 +282,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -362,8 +396,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F42" totalsRowShown="0">
-  <autoFilter ref="A1:F42" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F47" totalsRowShown="0">
+  <autoFilter ref="A1:F47" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Exchange"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ticker"/>
@@ -377,14 +411,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="AnagraficaTitoli" displayName="AnagraficaTitoli" ref="A1:E15" totalsRowShown="0">
-  <autoFilter ref="A1:E15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="AnagraficaTitoli" displayName="AnagraficaTitoli" ref="A1:E17" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:E17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Exchange"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ticker"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Security Name"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Asset Class"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Macro Asset Class"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Exchange" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ticker" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Security Name" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Asset Class" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Macro Asset Class" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -687,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1505,18 +1539,144 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="6">
+        <v>45323</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
+        <v>182.09</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="2"/>
+      <c r="A42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="10">
+        <v>45352</v>
+      </c>
+      <c r="D42" s="9">
+        <v>6</v>
+      </c>
+      <c r="E42" s="11">
+        <v>38.89</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="10">
+        <v>45352</v>
+      </c>
+      <c r="D43" s="9">
+        <v>6</v>
+      </c>
+      <c r="E43" s="11">
+        <v>13.182</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="10">
+        <v>45352</v>
+      </c>
+      <c r="D44" s="9">
+        <v>17</v>
+      </c>
+      <c r="E44" s="11">
+        <v>16.161999999999999</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="10">
+        <v>45352</v>
+      </c>
+      <c r="D45" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="11">
+        <v>162.35</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="10">
+        <v>45352</v>
+      </c>
+      <c r="D46" s="9">
+        <v>1</v>
+      </c>
+      <c r="E46" s="11">
+        <v>109.42</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="10">
+        <v>45352</v>
+      </c>
+      <c r="D47" s="9">
+        <v>4</v>
+      </c>
+      <c r="E47" s="11">
+        <v>16.167999999999999</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1529,10 +1689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1699,13 +1859,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>34</v>
@@ -1716,19 +1876,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1736,13 +1896,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>26</v>
@@ -1753,34 +1913,75 @@
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/data/in/demo.xlsx
+++ b/data/in/demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\personal-finance-for-newbies\data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A3DFDD-17E1-4973-9ED1-6BD6769B282E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E70308-B59F-485F-89F5-F3DFB4F28498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="55">
   <si>
     <t>Exchange</t>
   </si>
@@ -111,18 +111,12 @@
     <t>Macro Asset Class</t>
   </si>
   <si>
-    <t>Lyxor Euro Government Inflation Linked Bond</t>
-  </si>
-  <si>
     <t>EU Inflation-linked Bonds</t>
   </si>
   <si>
     <t>Bonds</t>
   </si>
   <si>
-    <t>Lyxor Core MSCI World</t>
-  </si>
-  <si>
     <t>World Stocks</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>EU Short Term Bonds</t>
   </si>
   <si>
-    <t>Lyxor Euro Government Bond 7-10Y</t>
-  </si>
-  <si>
     <t>EU Long Term Bonds</t>
   </si>
   <si>
@@ -192,20 +183,44 @@
     <t>LCCN</t>
   </si>
   <si>
-    <t>Lyxor MSCI China</t>
+    <t>BTCE</t>
+  </si>
+  <si>
+    <t>Bitcoin</t>
+  </si>
+  <si>
+    <t>ETC Group Physical Bitcoin</t>
+  </si>
+  <si>
+    <t>Amundi Euro Government Inflation Linked Bond</t>
+  </si>
+  <si>
+    <t>Amundi Core MSCI World</t>
+  </si>
+  <si>
+    <t>Amundi Euro Government Bond 7-10Y</t>
+  </si>
+  <si>
+    <t>Amundi MSCI China</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -258,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -276,26 +291,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -313,6 +322,32 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,29 +431,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F47" totalsRowShown="0">
-  <autoFilter ref="A1:F47" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F55" totalsRowShown="0" dataDxfId="13">
+  <autoFilter ref="A1:F55" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Exchange"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ticker"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transaction Date"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Shares"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Price (€)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fees (€)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Exchange" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ticker" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transaction Date" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Shares" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Price (€)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fees (€)" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="AnagraficaTitoli" displayName="AnagraficaTitoli" ref="A1:E17" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="AnagraficaTitoli" displayName="AnagraficaTitoli" ref="A1:E17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Exchange" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ticker" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Security Name" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Asset Class" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Macro Asset Class" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Exchange" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ticker" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Security Name" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Asset Class" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Macro Asset Class" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -721,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1443,7 +1478,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C36" s="6">
         <v>45201</v>
@@ -1559,123 +1594,283 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="6">
         <v>45352</v>
       </c>
-      <c r="D42" s="9">
-        <v>6</v>
-      </c>
-      <c r="E42" s="11">
+      <c r="D42" s="5">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2">
         <v>38.89</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="10">
+      <c r="A43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="6">
         <v>45352</v>
       </c>
-      <c r="D43" s="9">
-        <v>6</v>
-      </c>
-      <c r="E43" s="11">
+      <c r="D43" s="5">
+        <v>6</v>
+      </c>
+      <c r="E43" s="2">
         <v>13.182</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="10">
+      <c r="A44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6">
         <v>45352</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="5">
         <v>17</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="2">
         <v>16.161999999999999</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="6">
         <v>45352</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="5">
         <v>-1</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="2">
         <v>162.35</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="6">
         <v>45352</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="5">
         <v>1</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="2">
         <v>109.42</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="10">
+      <c r="A47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="6">
         <v>45352</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="5">
         <v>4</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="2">
         <v>16.167999999999999</v>
       </c>
-      <c r="F47" s="11">
-        <v>0</v>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6">
+        <v>45384</v>
+      </c>
+      <c r="D48" s="5">
+        <v>36</v>
+      </c>
+      <c r="E48" s="2">
+        <v>16.71</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="6">
+        <v>45414</v>
+      </c>
+      <c r="D49" s="5">
+        <v>44</v>
+      </c>
+      <c r="E49" s="2">
+        <v>16.228000000000002</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="6">
+        <v>45446</v>
+      </c>
+      <c r="D50" s="5">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2">
+        <v>160.61000000000001</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="6">
+        <v>45474</v>
+      </c>
+      <c r="D51" s="5">
+        <v>41</v>
+      </c>
+      <c r="E51" s="2">
+        <v>17.248000000000001</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="6">
+        <v>45474</v>
+      </c>
+      <c r="D52" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>103.22</v>
+      </c>
+      <c r="F52" s="2">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="6">
+        <v>45505</v>
+      </c>
+      <c r="D53" s="5">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2">
+        <v>111.28</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="6">
+        <v>45537</v>
+      </c>
+      <c r="D54" s="5">
+        <v>43</v>
+      </c>
+      <c r="E54" s="2">
+        <v>17.38</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="6">
+        <v>45566</v>
+      </c>
+      <c r="D55" s="5">
+        <v>46</v>
+      </c>
+      <c r="E55" s="2">
+        <v>17.658000000000001</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>
@@ -1692,32 +1887,32 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="10.23046875" customWidth="1"/>
-    <col min="3" max="3" width="38.921875" customWidth="1"/>
+    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.921875" customWidth="1"/>
     <col min="5" max="5" width="19.921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1729,13 +1924,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1746,13 +1941,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1763,13 +1958,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1780,13 +1975,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1797,13 +1992,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1814,13 +2009,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1831,13 +2026,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1848,13 +2043,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1865,13 +2060,13 @@
         <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1882,13 +2077,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1899,13 +2094,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1916,13 +2111,13 @@
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1932,14 +2127,14 @@
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>47</v>
+      <c r="C14" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1947,16 +2142,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1964,24 +2159,34 @@
         <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/data/in/demo.xlsx
+++ b/data/in/demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\personal-finance-for-newbies\data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E70308-B59F-485F-89F5-F3DFB4F28498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE0865A-E4D2-4D36-B9BC-0CC61232EB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions History" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="52">
   <si>
     <t>Exchange</t>
   </si>
@@ -181,15 +181,6 @@
   </si>
   <si>
     <t>LCCN</t>
-  </si>
-  <si>
-    <t>BTCE</t>
-  </si>
-  <si>
-    <t>Bitcoin</t>
-  </si>
-  <si>
-    <t>ETC Group Physical Bitcoin</t>
   </si>
   <si>
     <t>Amundi Euro Government Inflation Linked Bond</t>
@@ -446,8 +437,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="AnagraficaTitoli" displayName="AnagraficaTitoli" ref="A1:E17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="AnagraficaTitoli" displayName="AnagraficaTitoli" ref="A1:E16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Exchange" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ticker" dataDxfId="3"/>
@@ -758,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -1884,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1924,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>24</v>
@@ -1941,7 +1932,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>26</v>
@@ -2111,7 +2102,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>43</v>
@@ -2162,30 +2153,13 @@
         <v>47</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/in/demo.xlsx
+++ b/data/in/demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\personal-finance-for-newbies\data\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\repos\personal-finance-for-newbies\data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE0865A-E4D2-4D36-B9BC-0CC61232EB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DC84AC-3EBC-4897-8435-F4BB46E7D9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="56">
   <si>
     <t>Exchange</t>
   </si>
@@ -144,9 +144,6 @@
     <t>US Short Term Bonds</t>
   </si>
   <si>
-    <t>Cash (USD)</t>
-  </si>
-  <si>
     <t>iShares Physical Gold ETC</t>
   </si>
   <si>
@@ -193,6 +190,21 @@
   </si>
   <si>
     <t>Amundi MSCI China</t>
+  </si>
+  <si>
+    <t>BTCE</t>
+  </si>
+  <si>
+    <t>CNAA</t>
+  </si>
+  <si>
+    <t>ETC Group Physical Bitcoin</t>
+  </si>
+  <si>
+    <t>Amundi MSCI China A</t>
+  </si>
+  <si>
+    <t>Crypto</t>
   </si>
 </sst>
 </file>
@@ -264,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -291,6 +303,7 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -329,6 +342,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -422,8 +436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F55" totalsRowShown="0" dataDxfId="13">
-  <autoFilter ref="A1:F55" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F65" totalsRowShown="0" dataDxfId="13">
+  <autoFilter ref="A1:F65" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Exchange" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ticker" dataDxfId="11"/>
@@ -437,8 +451,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="AnagraficaTitoli" displayName="AnagraficaTitoli" ref="A1:E16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="AnagraficaTitoli" displayName="AnagraficaTitoli" ref="A1:E18" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Exchange" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ticker" dataDxfId="3"/>
@@ -747,17 +761,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="10.23046875" customWidth="1"/>
-    <col min="3" max="3" width="19.23046875" customWidth="1"/>
+    <col min="3" max="3" width="19.23046875" style="10" customWidth="1"/>
     <col min="4" max="4" width="10.69140625" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.69140625" style="2" customWidth="1"/>
@@ -1469,7 +1483,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="6">
         <v>45201</v>
@@ -1609,7 +1623,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="6">
         <v>45352</v>
@@ -1863,6 +1877,167 @@
       <c r="F55" s="2">
         <v>1.54</v>
       </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="6">
+        <v>45600</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>165.3</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="6">
+        <v>45600</v>
+      </c>
+      <c r="D57" s="5">
+        <v>-10</v>
+      </c>
+      <c r="E57" s="2">
+        <v>4.3734999999999999</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="6">
+        <v>45600</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2">
+        <v>57.78</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="6">
+        <v>45600</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
+        <v>143.35</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="6">
+        <v>45600</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>183.59</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="6">
+        <v>45600</v>
+      </c>
+      <c r="D61" s="5">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2">
+        <v>41.24</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="6">
+        <v>45600</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2">
+        <v>17.782</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1875,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1915,7 +2090,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>24</v>
@@ -1932,7 +2107,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>26</v>
@@ -2006,7 +2181,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -2017,13 +2192,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -2034,7 +2209,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>32</v>
@@ -2051,7 +2226,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>32</v>
@@ -2068,7 +2243,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>32</v>
@@ -2085,10 +2260,10 @@
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>25</v>
@@ -2102,10 +2277,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>25</v>
@@ -2119,13 +2294,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2133,16 +2308,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -2150,15 +2325,49 @@
         <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>27</v>
       </c>
     </row>
